--- a/KẾ TOÁN - THÁI HẰNG 26/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG 26/KHO MỞ.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="192" windowWidth="14808" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="T4" sheetId="2" r:id="rId3"/>
     <sheet name="T6" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1409,7 +1409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="78">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1640,6 +1640,9 @@
   </si>
   <si>
     <t>Chị nguyệt</t>
+  </si>
+  <si>
+    <t>ncncncncn</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2202,70 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2231,69 +2297,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2600,31 +2603,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z68" sqref="Z68"/>
+      <selection pane="bottomLeft" activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="A1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
       <c r="F1" s="113"/>
@@ -2660,11 +2663,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="114"/>
       <c r="E2" s="114"/>
       <c r="F2" s="114"/>
@@ -2700,235 +2703,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
       <c r="AF5" s="115"/>
       <c r="AG5" s="115"/>
       <c r="AH5" s="115"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="119" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="127" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="119" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="128" t="s">
+      <c r="G7" s="130"/>
+      <c r="H7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="119" t="s">
+      <c r="I7" s="149"/>
+      <c r="J7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="129" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="119" t="s">
+      <c r="M7" s="150"/>
+      <c r="N7" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="119"/>
-      <c r="P7" s="139" t="s">
+      <c r="O7" s="130"/>
+      <c r="P7" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="119" t="s">
+      <c r="Q7" s="138"/>
+      <c r="R7" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="119"/>
-      <c r="T7" s="140" t="s">
+      <c r="S7" s="130"/>
+      <c r="T7" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="140"/>
-      <c r="V7" s="119" t="s">
+      <c r="U7" s="139"/>
+      <c r="V7" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="119"/>
-      <c r="X7" s="141" t="s">
+      <c r="W7" s="130"/>
+      <c r="X7" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="119" t="s">
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="130" t="s">
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="119" t="s">
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="119"/>
+      <c r="AE7" s="130"/>
       <c r="AF7" s="131" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="119"/>
+      <c r="AH7" s="130"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="119"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="116" t="s">
         <v>26</v>
       </c>
@@ -3015,7 +3018,7 @@
       </c>
       <c r="AF8" s="132"/>
       <c r="AG8" s="132"/>
-      <c r="AH8" s="119"/>
+      <c r="AH8" s="130"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -4059,7 +4062,7 @@
       </c>
       <c r="AH28" s="25"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>20</v>
       </c>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="AH29" s="25"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>21</v>
       </c>
@@ -4147,7 +4150,7 @@
       </c>
       <c r="AH30" s="25"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>22</v>
       </c>
@@ -4191,7 +4194,7 @@
       </c>
       <c r="AH31" s="25"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>23</v>
       </c>
@@ -4235,7 +4238,7 @@
       </c>
       <c r="AH32" s="25"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>24</v>
       </c>
@@ -4279,7 +4282,7 @@
       </c>
       <c r="AH33" s="25"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>25</v>
       </c>
@@ -4323,7 +4326,7 @@
       </c>
       <c r="AH34" s="25"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>26</v>
       </c>
@@ -4367,7 +4370,7 @@
       </c>
       <c r="AH35" s="25"/>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>27</v>
       </c>
@@ -4411,7 +4414,7 @@
       </c>
       <c r="AH36" s="25"/>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>28</v>
       </c>
@@ -4455,7 +4458,7 @@
       </c>
       <c r="AH37" s="25"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>29</v>
       </c>
@@ -4499,7 +4502,7 @@
       </c>
       <c r="AH38" s="25"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>30</v>
       </c>
@@ -4543,7 +4546,7 @@
       </c>
       <c r="AH39" s="25"/>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>31</v>
       </c>
@@ -4587,7 +4590,7 @@
       </c>
       <c r="AH40" s="25"/>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>32</v>
       </c>
@@ -4631,7 +4634,7 @@
       </c>
       <c r="AH41" s="27"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>33</v>
       </c>
@@ -4675,7 +4678,7 @@
       </c>
       <c r="AH42" s="27"/>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>34</v>
       </c>
@@ -4719,7 +4722,7 @@
       </c>
       <c r="AH43" s="27"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>35</v>
       </c>
@@ -4763,7 +4766,7 @@
       </c>
       <c r="AH44" s="22"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>36</v>
       </c>
@@ -4807,7 +4810,7 @@
       </c>
       <c r="AH45" s="25"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>37</v>
       </c>
@@ -4851,7 +4854,7 @@
       </c>
       <c r="AH46" s="25"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>38</v>
       </c>
@@ -4895,7 +4898,7 @@
       </c>
       <c r="AH47" s="25"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>39</v>
       </c>
@@ -4939,7 +4942,7 @@
       </c>
       <c r="AH48" s="25"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>40</v>
       </c>
@@ -4983,7 +4986,7 @@
       </c>
       <c r="AH49" s="25"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>41</v>
       </c>
@@ -5027,7 +5030,7 @@
       </c>
       <c r="AH50" s="25"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>42</v>
       </c>
@@ -5071,7 +5074,7 @@
       </c>
       <c r="AH51" s="92"/>
     </row>
-    <row r="52" spans="1:34" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
       <c r="C52" s="88"/>
@@ -5107,7 +5110,7 @@
       <c r="AG52" s="91"/>
       <c r="AH52" s="89"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
       <c r="B53" s="133">
         <v>43910</v>
@@ -5118,71 +5121,71 @@
         <v>0</v>
       </c>
       <c r="E53" s="135"/>
-      <c r="F53" s="136">
+      <c r="F53" s="121">
         <f>SUM(F9:F51)-SUM(G9:G51)</f>
         <v>4</v>
       </c>
-      <c r="G53" s="136"/>
-      <c r="H53" s="137">
+      <c r="G53" s="121"/>
+      <c r="H53" s="136">
         <f>SUM(H9:H51)-SUM(I9:I51)</f>
         <v>0</v>
       </c>
-      <c r="I53" s="137"/>
-      <c r="J53" s="136">
+      <c r="I53" s="136"/>
+      <c r="J53" s="121">
         <f>SUM(J9:J51)-SUM(K9:K51)</f>
         <v>1</v>
       </c>
-      <c r="K53" s="136"/>
-      <c r="L53" s="138">
+      <c r="K53" s="121"/>
+      <c r="L53" s="137">
         <f>SUM(L9:L51)-SUM(M9:M51)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="138"/>
-      <c r="N53" s="136">
+      <c r="M53" s="137"/>
+      <c r="N53" s="121">
         <f>SUM(N9:N51)-SUM(O9:O51)</f>
         <v>2</v>
       </c>
-      <c r="O53" s="136"/>
-      <c r="P53" s="144">
+      <c r="O53" s="121"/>
+      <c r="P53" s="122">
         <f>SUM(P9:P51)-SUM(Q9:Q51)</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="144"/>
-      <c r="R53" s="136">
+      <c r="Q53" s="122"/>
+      <c r="R53" s="121">
         <f>SUM(R9:R51)-SUM(S9:S51)</f>
         <v>2</v>
       </c>
-      <c r="S53" s="136"/>
-      <c r="T53" s="145">
+      <c r="S53" s="121"/>
+      <c r="T53" s="123">
         <f>SUM(T9:T51)-SUM(U9:U51)</f>
         <v>0</v>
       </c>
-      <c r="U53" s="145"/>
-      <c r="V53" s="136">
+      <c r="U53" s="123"/>
+      <c r="V53" s="121">
         <f>SUM(V9:V51)-SUM(W9:W51)</f>
         <v>0</v>
       </c>
-      <c r="W53" s="136"/>
-      <c r="X53" s="146">
+      <c r="W53" s="121"/>
+      <c r="X53" s="124">
         <f>SUM(X9:X51)-SUM(Y9:Y51)</f>
         <v>5</v>
       </c>
-      <c r="Y53" s="146"/>
-      <c r="Z53" s="136">
+      <c r="Y53" s="124"/>
+      <c r="Z53" s="121">
         <f>SUM(Z9:Z51)-SUM(AA9:AA51)</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="136"/>
-      <c r="AB53" s="147">
+      <c r="AA53" s="121"/>
+      <c r="AB53" s="125">
         <f>SUM(AB9:AB51)-SUM(AC9:AC51)</f>
         <v>3</v>
       </c>
-      <c r="AC53" s="147"/>
-      <c r="AD53" s="136">
+      <c r="AC53" s="125"/>
+      <c r="AD53" s="121">
         <f>SUM(AD9:AD51)-SUM(AE9:AE51)</f>
         <v>0</v>
       </c>
-      <c r="AE53" s="136"/>
+      <c r="AE53" s="121"/>
       <c r="AF53" s="31"/>
       <c r="AG53" s="20">
         <f t="shared" si="1"/>
@@ -5191,39 +5194,39 @@
       <c r="AH53" s="32"/>
     </row>
     <row r="54" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="149"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="149"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="149"/>
-      <c r="N54" s="149"/>
-      <c r="O54" s="149"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="149"/>
-      <c r="R54" s="149"/>
-      <c r="S54" s="149"/>
-      <c r="T54" s="149"/>
-      <c r="U54" s="149"/>
-      <c r="V54" s="149"/>
-      <c r="W54" s="149"/>
-      <c r="X54" s="149"/>
-      <c r="Y54" s="149"/>
-      <c r="Z54" s="149"/>
-      <c r="AA54" s="149"/>
-      <c r="AB54" s="149"/>
-      <c r="AC54" s="149"/>
-      <c r="AD54" s="149"/>
-      <c r="AE54" s="150"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="127"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="127"/>
+      <c r="P54" s="127"/>
+      <c r="Q54" s="127"/>
+      <c r="R54" s="127"/>
+      <c r="S54" s="127"/>
+      <c r="T54" s="127"/>
+      <c r="U54" s="127"/>
+      <c r="V54" s="127"/>
+      <c r="W54" s="127"/>
+      <c r="X54" s="127"/>
+      <c r="Y54" s="127"/>
+      <c r="Z54" s="127"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
+      <c r="AC54" s="127"/>
+      <c r="AD54" s="127"/>
+      <c r="AE54" s="128"/>
       <c r="AF54" s="33">
         <f>SUM(AF9:AF51)</f>
         <v>79</v>
@@ -5235,60 +5238,69 @@
       <c r="AH54" s="34"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="148" t="s">
+      <c r="A55" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="149"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="149"/>
-      <c r="K55" s="149"/>
-      <c r="L55" s="149"/>
-      <c r="M55" s="149"/>
-      <c r="N55" s="149"/>
-      <c r="O55" s="149"/>
-      <c r="P55" s="149"/>
-      <c r="Q55" s="149"/>
-      <c r="R55" s="149"/>
-      <c r="S55" s="149"/>
-      <c r="T55" s="149"/>
-      <c r="U55" s="149"/>
-      <c r="V55" s="149"/>
-      <c r="W55" s="149"/>
-      <c r="X55" s="149"/>
-      <c r="Y55" s="149"/>
-      <c r="Z55" s="149"/>
-      <c r="AA55" s="149"/>
-      <c r="AB55" s="149"/>
-      <c r="AC55" s="149"/>
-      <c r="AD55" s="149"/>
-      <c r="AE55" s="150"/>
-      <c r="AF55" s="142">
+      <c r="B55" s="127"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="127"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="127"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="127"/>
+      <c r="L55" s="127"/>
+      <c r="M55" s="127"/>
+      <c r="N55" s="127"/>
+      <c r="O55" s="127"/>
+      <c r="P55" s="127"/>
+      <c r="Q55" s="127"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="127"/>
+      <c r="T55" s="127"/>
+      <c r="U55" s="127"/>
+      <c r="V55" s="127"/>
+      <c r="W55" s="127"/>
+      <c r="X55" s="127"/>
+      <c r="Y55" s="127"/>
+      <c r="Z55" s="127"/>
+      <c r="AA55" s="127"/>
+      <c r="AB55" s="127"/>
+      <c r="AC55" s="127"/>
+      <c r="AD55" s="127"/>
+      <c r="AE55" s="128"/>
+      <c r="AF55" s="119">
         <f>AG54-AF54</f>
         <v>17</v>
       </c>
-      <c r="AG55" s="143"/>
+      <c r="AG55" s="120"/>
       <c r="AH55" s="34"/>
+    </row>
+    <row r="65" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S65" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF55:AG55"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="A54:AE54"/>
-    <mergeCell ref="A55:AE55"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -5305,22 +5317,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="A54:AE54"/>
+    <mergeCell ref="A55:AE55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5339,24 +5347,24 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="A1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -5392,11 +5400,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -5432,235 +5440,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
       <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
       <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="119" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="127" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="119" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="128" t="s">
+      <c r="G7" s="130"/>
+      <c r="H7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="119" t="s">
+      <c r="I7" s="149"/>
+      <c r="J7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="129" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="119" t="s">
+      <c r="M7" s="150"/>
+      <c r="N7" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="119"/>
-      <c r="P7" s="139" t="s">
+      <c r="O7" s="130"/>
+      <c r="P7" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="119" t="s">
+      <c r="Q7" s="138"/>
+      <c r="R7" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="119"/>
-      <c r="T7" s="140" t="s">
+      <c r="S7" s="130"/>
+      <c r="T7" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="140"/>
-      <c r="V7" s="119" t="s">
+      <c r="U7" s="139"/>
+      <c r="V7" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="119"/>
-      <c r="X7" s="141" t="s">
+      <c r="W7" s="130"/>
+      <c r="X7" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="119" t="s">
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="130" t="s">
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="119" t="s">
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="119"/>
+      <c r="AE7" s="130"/>
       <c r="AF7" s="131" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="119"/>
+      <c r="AH7" s="130"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="119"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
@@ -5747,7 +5755,7 @@
       </c>
       <c r="AF8" s="132"/>
       <c r="AG8" s="132"/>
-      <c r="AH8" s="119"/>
+      <c r="AH8" s="130"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -7111,7 +7119,7 @@
       </c>
       <c r="AH34" s="25"/>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>27</v>
       </c>
@@ -7155,7 +7163,7 @@
       </c>
       <c r="AH35" s="25"/>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -7199,7 +7207,7 @@
       </c>
       <c r="AH36" s="25"/>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>29</v>
       </c>
@@ -7243,7 +7251,7 @@
       </c>
       <c r="AH37" s="25"/>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -7287,7 +7295,7 @@
       </c>
       <c r="AH38" s="25"/>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>31</v>
       </c>
@@ -7331,7 +7339,7 @@
       </c>
       <c r="AH39" s="25"/>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>32</v>
       </c>
@@ -7375,7 +7383,7 @@
       </c>
       <c r="AH40" s="27"/>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>33</v>
       </c>
@@ -7419,7 +7427,7 @@
       </c>
       <c r="AH41" s="27"/>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>34</v>
       </c>
@@ -7932,71 +7940,71 @@
         <v>1</v>
       </c>
       <c r="E52" s="135"/>
-      <c r="F52" s="136">
+      <c r="F52" s="121">
         <f>SUM(F9:F50)-SUM(G9:G50)</f>
         <v>4</v>
       </c>
-      <c r="G52" s="136"/>
-      <c r="H52" s="137">
+      <c r="G52" s="121"/>
+      <c r="H52" s="136">
         <f>SUM(H9:H50)-SUM(I9:I50)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="137"/>
-      <c r="J52" s="136">
+      <c r="I52" s="136"/>
+      <c r="J52" s="121">
         <f>SUM(J9:J50)-SUM(K9:K50)</f>
         <v>8</v>
       </c>
-      <c r="K52" s="136"/>
-      <c r="L52" s="138">
+      <c r="K52" s="121"/>
+      <c r="L52" s="137">
         <f>SUM(L9:L50)-SUM(M9:M50)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="138"/>
-      <c r="N52" s="136">
+      <c r="M52" s="137"/>
+      <c r="N52" s="121">
         <f>SUM(N9:N50)-SUM(O9:O50)</f>
         <v>10</v>
       </c>
-      <c r="O52" s="136"/>
-      <c r="P52" s="144">
+      <c r="O52" s="121"/>
+      <c r="P52" s="122">
         <f>SUM(P9:P50)-SUM(Q9:Q50)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="144"/>
-      <c r="R52" s="136">
+      <c r="Q52" s="122"/>
+      <c r="R52" s="121">
         <f>SUM(R9:R50)-SUM(S9:S50)</f>
         <v>5</v>
       </c>
-      <c r="S52" s="136"/>
-      <c r="T52" s="145">
+      <c r="S52" s="121"/>
+      <c r="T52" s="123">
         <f>SUM(T9:T50)-SUM(U9:U50)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="145"/>
-      <c r="V52" s="136">
+      <c r="U52" s="123"/>
+      <c r="V52" s="121">
         <f>SUM(V9:V50)-SUM(W9:W50)</f>
         <v>12</v>
       </c>
-      <c r="W52" s="136"/>
-      <c r="X52" s="146">
+      <c r="W52" s="121"/>
+      <c r="X52" s="124">
         <f>SUM(X9:X50)-SUM(Y9:Y50)</f>
         <v>8</v>
       </c>
-      <c r="Y52" s="146"/>
-      <c r="Z52" s="136">
+      <c r="Y52" s="124"/>
+      <c r="Z52" s="121">
         <f>SUM(Z9:Z50)-SUM(AA9:AA50)</f>
         <v>1</v>
       </c>
-      <c r="AA52" s="136"/>
-      <c r="AB52" s="147">
+      <c r="AA52" s="121"/>
+      <c r="AB52" s="125">
         <f>SUM(AB9:AB50)-SUM(AC9:AC50)</f>
         <v>16</v>
       </c>
-      <c r="AC52" s="147"/>
-      <c r="AD52" s="136">
+      <c r="AC52" s="125"/>
+      <c r="AD52" s="121">
         <f>SUM(AD9:AD50)-SUM(AE9:AE50)</f>
         <v>32</v>
       </c>
-      <c r="AE52" s="136"/>
+      <c r="AE52" s="121"/>
       <c r="AF52" s="31"/>
       <c r="AG52" s="20">
         <f t="shared" si="1"/>
@@ -8005,39 +8013,39 @@
       <c r="AH52" s="32"/>
     </row>
     <row r="53" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="148" t="s">
+      <c r="A53" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="149"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="149"/>
-      <c r="P53" s="149"/>
-      <c r="Q53" s="149"/>
-      <c r="R53" s="149"/>
-      <c r="S53" s="149"/>
-      <c r="T53" s="149"/>
-      <c r="U53" s="149"/>
-      <c r="V53" s="149"/>
-      <c r="W53" s="149"/>
-      <c r="X53" s="149"/>
-      <c r="Y53" s="149"/>
-      <c r="Z53" s="149"/>
-      <c r="AA53" s="149"/>
-      <c r="AB53" s="149"/>
-      <c r="AC53" s="149"/>
-      <c r="AD53" s="149"/>
-      <c r="AE53" s="150"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="127"/>
+      <c r="N53" s="127"/>
+      <c r="O53" s="127"/>
+      <c r="P53" s="127"/>
+      <c r="Q53" s="127"/>
+      <c r="R53" s="127"/>
+      <c r="S53" s="127"/>
+      <c r="T53" s="127"/>
+      <c r="U53" s="127"/>
+      <c r="V53" s="127"/>
+      <c r="W53" s="127"/>
+      <c r="X53" s="127"/>
+      <c r="Y53" s="127"/>
+      <c r="Z53" s="127"/>
+      <c r="AA53" s="127"/>
+      <c r="AB53" s="127"/>
+      <c r="AC53" s="127"/>
+      <c r="AD53" s="127"/>
+      <c r="AE53" s="128"/>
       <c r="AF53" s="33">
         <f>SUM(AF9:AF50)</f>
         <v>116</v>
@@ -8049,60 +8057,64 @@
       <c r="AH53" s="34"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="148" t="s">
+      <c r="A54" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="149"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="149"/>
-      <c r="K54" s="149"/>
-      <c r="L54" s="149"/>
-      <c r="M54" s="149"/>
-      <c r="N54" s="149"/>
-      <c r="O54" s="149"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="149"/>
-      <c r="R54" s="149"/>
-      <c r="S54" s="149"/>
-      <c r="T54" s="149"/>
-      <c r="U54" s="149"/>
-      <c r="V54" s="149"/>
-      <c r="W54" s="149"/>
-      <c r="X54" s="149"/>
-      <c r="Y54" s="149"/>
-      <c r="Z54" s="149"/>
-      <c r="AA54" s="149"/>
-      <c r="AB54" s="149"/>
-      <c r="AC54" s="149"/>
-      <c r="AD54" s="149"/>
-      <c r="AE54" s="150"/>
-      <c r="AF54" s="142">
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="127"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="127"/>
+      <c r="P54" s="127"/>
+      <c r="Q54" s="127"/>
+      <c r="R54" s="127"/>
+      <c r="S54" s="127"/>
+      <c r="T54" s="127"/>
+      <c r="U54" s="127"/>
+      <c r="V54" s="127"/>
+      <c r="W54" s="127"/>
+      <c r="X54" s="127"/>
+      <c r="Y54" s="127"/>
+      <c r="Z54" s="127"/>
+      <c r="AA54" s="127"/>
+      <c r="AB54" s="127"/>
+      <c r="AC54" s="127"/>
+      <c r="AD54" s="127"/>
+      <c r="AE54" s="128"/>
+      <c r="AF54" s="119">
         <f>AG53-AF53</f>
         <v>97</v>
       </c>
-      <c r="AG54" s="143"/>
+      <c r="AG54" s="120"/>
       <c r="AH54" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="A53:AE53"/>
-    <mergeCell ref="A54:AE54"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -8119,22 +8131,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="A53:AE53"/>
+    <mergeCell ref="A54:AE54"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="B52:C52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -8153,24 +8161,24 @@
       <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="A1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
@@ -8206,11 +8214,11 @@
       <c r="AH1" s="3"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
       <c r="F2" s="70"/>
@@ -8246,235 +8254,235 @@
       <c r="AH2" s="3"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
       <c r="AF5" s="71"/>
       <c r="AG5" s="71"/>
       <c r="AH5" s="71"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="119" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="127" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="119" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="128" t="s">
+      <c r="G7" s="130"/>
+      <c r="H7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="119" t="s">
+      <c r="I7" s="149"/>
+      <c r="J7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="129" t="s">
+      <c r="K7" s="130"/>
+      <c r="L7" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="119" t="s">
+      <c r="M7" s="150"/>
+      <c r="N7" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="119"/>
-      <c r="P7" s="139" t="s">
+      <c r="O7" s="130"/>
+      <c r="P7" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="119" t="s">
+      <c r="Q7" s="138"/>
+      <c r="R7" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="119"/>
-      <c r="T7" s="140" t="s">
+      <c r="S7" s="130"/>
+      <c r="T7" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="140"/>
-      <c r="V7" s="119" t="s">
+      <c r="U7" s="139"/>
+      <c r="V7" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="119"/>
-      <c r="X7" s="141" t="s">
+      <c r="W7" s="130"/>
+      <c r="X7" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="119" t="s">
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="130" t="s">
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="119" t="s">
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="119"/>
+      <c r="AE7" s="130"/>
       <c r="AF7" s="131" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="119"/>
+      <c r="AH7" s="130"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="119"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="130"/>
       <c r="D8" s="72" t="s">
         <v>26</v>
       </c>
@@ -8561,7 +8569,7 @@
       </c>
       <c r="AF8" s="151"/>
       <c r="AG8" s="151"/>
-      <c r="AH8" s="119"/>
+      <c r="AH8" s="130"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -10130,71 +10138,71 @@
         <v>1</v>
       </c>
       <c r="E43" s="135"/>
-      <c r="F43" s="136">
+      <c r="F43" s="121">
         <f>SUM(F9:F42)-SUM(G9:G42)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="136"/>
-      <c r="H43" s="137">
+      <c r="G43" s="121"/>
+      <c r="H43" s="136">
         <f>SUM(H9:H42)-SUM(I9:I42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="137"/>
-      <c r="J43" s="136">
+      <c r="I43" s="136"/>
+      <c r="J43" s="121">
         <f>SUM(J9:J42)-SUM(K9:K42)</f>
         <v>6</v>
       </c>
-      <c r="K43" s="136"/>
-      <c r="L43" s="138">
+      <c r="K43" s="121"/>
+      <c r="L43" s="137">
         <f>SUM(L9:L42)-SUM(M9:M42)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="138"/>
-      <c r="N43" s="136">
+      <c r="M43" s="137"/>
+      <c r="N43" s="121">
         <f>SUM(N9:N42)-SUM(O9:O42)</f>
         <v>9</v>
       </c>
-      <c r="O43" s="136"/>
-      <c r="P43" s="144">
+      <c r="O43" s="121"/>
+      <c r="P43" s="122">
         <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="136">
+      <c r="Q43" s="122"/>
+      <c r="R43" s="121">
         <f>SUM(R9:R42)-SUM(S9:S42)</f>
         <v>5</v>
       </c>
-      <c r="S43" s="136"/>
-      <c r="T43" s="145">
+      <c r="S43" s="121"/>
+      <c r="T43" s="123">
         <f>SUM(T9:T42)-SUM(U9:U42)</f>
         <v>0</v>
       </c>
-      <c r="U43" s="145"/>
-      <c r="V43" s="136">
+      <c r="U43" s="123"/>
+      <c r="V43" s="121">
         <f>SUM(V9:V42)-SUM(W9:W42)</f>
         <v>12</v>
       </c>
-      <c r="W43" s="136"/>
-      <c r="X43" s="146">
+      <c r="W43" s="121"/>
+      <c r="X43" s="124">
         <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
         <v>8</v>
       </c>
-      <c r="Y43" s="146"/>
-      <c r="Z43" s="136">
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="121">
         <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="147">
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="125">
         <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
         <v>15</v>
       </c>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="136">
+      <c r="AC43" s="125"/>
+      <c r="AD43" s="121">
         <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
         <v>32</v>
       </c>
-      <c r="AE43" s="136"/>
+      <c r="AE43" s="121"/>
       <c r="AF43" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10206,39 +10214,39 @@
       <c r="AH43" s="32"/>
     </row>
     <row r="44" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="149"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="149"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="149"/>
-      <c r="P44" s="149"/>
-      <c r="Q44" s="149"/>
-      <c r="R44" s="149"/>
-      <c r="S44" s="149"/>
-      <c r="T44" s="149"/>
-      <c r="U44" s="149"/>
-      <c r="V44" s="149"/>
-      <c r="W44" s="149"/>
-      <c r="X44" s="149"/>
-      <c r="Y44" s="149"/>
-      <c r="Z44" s="149"/>
-      <c r="AA44" s="149"/>
-      <c r="AB44" s="149"/>
-      <c r="AC44" s="149"/>
-      <c r="AD44" s="149"/>
-      <c r="AE44" s="150"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="127"/>
+      <c r="Q44" s="127"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="127"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="127"/>
+      <c r="V44" s="127"/>
+      <c r="W44" s="127"/>
+      <c r="X44" s="127"/>
+      <c r="Y44" s="127"/>
+      <c r="Z44" s="127"/>
+      <c r="AA44" s="127"/>
+      <c r="AB44" s="127"/>
+      <c r="AC44" s="127"/>
+      <c r="AD44" s="127"/>
+      <c r="AE44" s="128"/>
       <c r="AF44" s="33">
         <f>SUM(AF9:AF42)</f>
         <v>9</v>
@@ -10250,50 +10258,2152 @@
       <c r="AH44" s="34"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
+      <c r="A45" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="149"/>
-      <c r="R45" s="149"/>
-      <c r="S45" s="149"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="149"/>
-      <c r="V45" s="149"/>
-      <c r="W45" s="149"/>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="149"/>
-      <c r="AD45" s="149"/>
-      <c r="AE45" s="150"/>
-      <c r="AF45" s="142">
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="127"/>
+      <c r="Z45" s="127"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
+      <c r="AC45" s="127"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="128"/>
+      <c r="AF45" s="119">
         <f>AG44-AF44</f>
         <v>88</v>
       </c>
-      <c r="AG45" s="143"/>
+      <c r="AG45" s="120"/>
       <c r="AH45" s="34"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="AG48" s="6" t="s">
         <v>58</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="A44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AA43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="142" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="143"/>
+      <c r="AE4" s="143"/>
+      <c r="AF4" s="143"/>
+      <c r="AG4" s="143"/>
+      <c r="AH4" s="143"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
+      <c r="AA5" s="143"/>
+      <c r="AB5" s="143"/>
+      <c r="AC5" s="143"/>
+      <c r="AD5" s="143"/>
+      <c r="AE5" s="143"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="130"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="148"/>
+      <c r="F7" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="130"/>
+      <c r="H7" s="149" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="149"/>
+      <c r="J7" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="130"/>
+      <c r="L7" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="150"/>
+      <c r="N7" s="130" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="130"/>
+      <c r="P7" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="130"/>
+      <c r="T7" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="139"/>
+      <c r="V7" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="130"/>
+      <c r="X7" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH7" s="130"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="130"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
+        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20">
+        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="20"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="20">
+        <f t="shared" ref="AF10:AF42" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="20">
+        <f t="shared" ref="AG10:AG42" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="22"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="25"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="25"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="25"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="25"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="25"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="25"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="25"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="25"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="25"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="25"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="25"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="25"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="46"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="25"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>16</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="25"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>17</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="25"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>18</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="25"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>19</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="25"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>20</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="25"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>21</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="25"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>22</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="25"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>23</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="25"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>24</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="25"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>25</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="25"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>26</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="25"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>27</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="25"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>28</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+      <c r="AF36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="25"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>29</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="25"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>30</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="62"/>
+      <c r="Y38" s="62"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="25"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>31</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="25"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>32</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="47"/>
+      <c r="AC40" s="47"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="27"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>33</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="27"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>34</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="47"/>
+      <c r="AC42" s="47"/>
+      <c r="AD42" s="27"/>
+      <c r="AE42" s="27"/>
+      <c r="AF42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="27"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="135">
+        <f>SUM(D9:D42)-SUM(E9:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="135"/>
+      <c r="F43" s="121">
+        <f>SUM(F9:F42)-SUM(G9:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="121"/>
+      <c r="H43" s="136">
+        <f>SUM(H9:H42)-SUM(I9:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="136"/>
+      <c r="J43" s="121">
+        <f>SUM(J9:J42)-SUM(K9:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="121"/>
+      <c r="L43" s="137">
+        <f>SUM(L9:L42)-SUM(M9:M42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="137"/>
+      <c r="N43" s="121">
+        <f>SUM(N9:N42)-SUM(O9:O42)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="121"/>
+      <c r="P43" s="122">
+        <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="121">
+        <f>SUM(R9:R42)-SUM(S9:S42)</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="121"/>
+      <c r="T43" s="123">
+        <f>SUM(T9:T42)-SUM(U9:U42)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="123"/>
+      <c r="V43" s="121">
+        <f>SUM(V9:V42)-SUM(W9:W42)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="121"/>
+      <c r="X43" s="124">
+        <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="121">
+        <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="125">
+        <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="125"/>
+      <c r="AD43" s="121">
+        <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="121"/>
+      <c r="AF43" s="31"/>
+      <c r="AG43" s="20">
+        <f>D43+F43+H43+J43+L43+N43+P43+R43+T43+V43+X43+Z43+AB43+AD43</f>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="32"/>
+    </row>
+    <row r="44" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="127"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="127"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="127"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="127"/>
+      <c r="K44" s="127"/>
+      <c r="L44" s="127"/>
+      <c r="M44" s="127"/>
+      <c r="N44" s="127"/>
+      <c r="O44" s="127"/>
+      <c r="P44" s="127"/>
+      <c r="Q44" s="127"/>
+      <c r="R44" s="127"/>
+      <c r="S44" s="127"/>
+      <c r="T44" s="127"/>
+      <c r="U44" s="127"/>
+      <c r="V44" s="127"/>
+      <c r="W44" s="127"/>
+      <c r="X44" s="127"/>
+      <c r="Y44" s="127"/>
+      <c r="Z44" s="127"/>
+      <c r="AA44" s="127"/>
+      <c r="AB44" s="127"/>
+      <c r="AC44" s="127"/>
+      <c r="AD44" s="127"/>
+      <c r="AE44" s="128"/>
+      <c r="AF44" s="33">
+        <f>SUM(AF9:AF42)</f>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="33">
+        <f>SUM(AG9:AG42)</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="34"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="126" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="127"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="127"/>
+      <c r="K45" s="127"/>
+      <c r="L45" s="127"/>
+      <c r="M45" s="127"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="127"/>
+      <c r="Q45" s="127"/>
+      <c r="R45" s="127"/>
+      <c r="S45" s="127"/>
+      <c r="T45" s="127"/>
+      <c r="U45" s="127"/>
+      <c r="V45" s="127"/>
+      <c r="W45" s="127"/>
+      <c r="X45" s="127"/>
+      <c r="Y45" s="127"/>
+      <c r="Z45" s="127"/>
+      <c r="AA45" s="127"/>
+      <c r="AB45" s="127"/>
+      <c r="AC45" s="127"/>
+      <c r="AD45" s="127"/>
+      <c r="AE45" s="128"/>
+      <c r="AF45" s="119">
+        <f>AG44-AF44</f>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="120"/>
+      <c r="AH45" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -10342,2108 +12452,6 @@
     <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="122"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="123" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="125"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="119"/>
-      <c r="P7" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="S7" s="119"/>
-      <c r="T7" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" s="140"/>
-      <c r="V7" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="119"/>
-      <c r="X7" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG7" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH7" s="119"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="79" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="U8" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="V8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="W8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y8" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB8" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC8" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD8" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE8" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="119"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20">
-        <f>E9+G9+I9+K9+M9+O9+Q9+S9+U9+W9+Y9+AA9+AC9+AE9</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="20">
-        <f>D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="20"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="20">
-        <f t="shared" ref="AF10:AF42" si="0">E10+G10+I10+K10+M10+O10+Q10+S10+U10+W10+Y10+AA10+AC10+AE10</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG42" si="1">D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="22"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="25"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="25"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="25"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="63"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="25"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="25"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="25"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="25"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="25"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="25"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="25"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="25"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="25"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="25"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="25"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>16</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="46"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="25"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>17</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="25"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
-        <v>18</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="25"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>19</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="25"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>20</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="46"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="25"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>21</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="25"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>22</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="25"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>23</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="46"/>
-      <c r="AC31" s="46"/>
-      <c r="AD31" s="25"/>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="25"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>24</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="46"/>
-      <c r="AC32" s="46"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="25"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>25</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="25"/>
-      <c r="W33" s="25"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="46"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="25"/>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="25"/>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
-        <v>26</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="25"/>
-      <c r="W34" s="25"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="46"/>
-      <c r="AC34" s="46"/>
-      <c r="AD34" s="25"/>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="25"/>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>27</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="25"/>
-      <c r="W35" s="25"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="25"/>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="25"/>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>28</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="25"/>
-      <c r="W36" s="25"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="25"/>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>29</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="25"/>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>30</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="25"/>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="25"/>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>31</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="46"/>
-      <c r="AC39" s="46"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="25"/>
-    </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
-        <v>32</v>
-      </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="63"/>
-      <c r="Y40" s="63"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="27"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>33</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="27"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>34</v>
-      </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="63"/>
-      <c r="Y42" s="63"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="27"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="135">
-        <f>SUM(D9:D42)-SUM(E9:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="135"/>
-      <c r="F43" s="136">
-        <f>SUM(F9:F42)-SUM(G9:G42)</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="136"/>
-      <c r="H43" s="137">
-        <f>SUM(H9:H42)-SUM(I9:I42)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="137"/>
-      <c r="J43" s="136">
-        <f>SUM(J9:J42)-SUM(K9:K42)</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="136"/>
-      <c r="L43" s="138">
-        <f>SUM(L9:L42)-SUM(M9:M42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="138"/>
-      <c r="N43" s="136">
-        <f>SUM(N9:N42)-SUM(O9:O42)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="136"/>
-      <c r="P43" s="144">
-        <f>SUM(P9:P42)-SUM(Q9:Q42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="136">
-        <f>SUM(R9:R42)-SUM(S9:S42)</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="136"/>
-      <c r="T43" s="145">
-        <f>SUM(T9:T42)-SUM(U9:U42)</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="145"/>
-      <c r="V43" s="136">
-        <f>SUM(V9:V42)-SUM(W9:W42)</f>
-        <v>0</v>
-      </c>
-      <c r="W43" s="136"/>
-      <c r="X43" s="146">
-        <f>SUM(X9:X42)-SUM(Y9:Y42)</f>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="146"/>
-      <c r="Z43" s="136">
-        <f>SUM(Z9:Z42)-SUM(AA9:AA42)</f>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="147">
-        <f>SUM(AB9:AB42)-SUM(AC9:AC42)</f>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="147"/>
-      <c r="AD43" s="136">
-        <f>SUM(AD9:AD42)-SUM(AE9:AE42)</f>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="136"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="20">
-        <f>D43+F43+H43+J43+L43+N43+P43+R43+T43+V43+X43+Z43+AB43+AD43</f>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="32"/>
-    </row>
-    <row r="44" spans="1:34" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="149"/>
-      <c r="L44" s="149"/>
-      <c r="M44" s="149"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="149"/>
-      <c r="P44" s="149"/>
-      <c r="Q44" s="149"/>
-      <c r="R44" s="149"/>
-      <c r="S44" s="149"/>
-      <c r="T44" s="149"/>
-      <c r="U44" s="149"/>
-      <c r="V44" s="149"/>
-      <c r="W44" s="149"/>
-      <c r="X44" s="149"/>
-      <c r="Y44" s="149"/>
-      <c r="Z44" s="149"/>
-      <c r="AA44" s="149"/>
-      <c r="AB44" s="149"/>
-      <c r="AC44" s="149"/>
-      <c r="AD44" s="149"/>
-      <c r="AE44" s="150"/>
-      <c r="AF44" s="33">
-        <f>SUM(AF9:AF42)</f>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="33">
-        <f>SUM(AG9:AG42)</f>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="34"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="148" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="149"/>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="149"/>
-      <c r="R45" s="149"/>
-      <c r="S45" s="149"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="149"/>
-      <c r="V45" s="149"/>
-      <c r="W45" s="149"/>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="149"/>
-      <c r="AD45" s="149"/>
-      <c r="AE45" s="150"/>
-      <c r="AF45" s="142">
-        <f>AG44-AF44</f>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="143"/>
-      <c r="AH45" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="A44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AA43"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG 26/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG 26/KHO MỞ.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="192" windowWidth="14808" windowHeight="7920"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="T4" sheetId="2" r:id="rId3"/>
     <sheet name="T6" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1642,7 +1642,7 @@
     <t>Chị nguyệt</t>
   </si>
   <si>
-    <t>ncncncncn</t>
+    <t>Đinh Thị Mai Hồng</t>
   </si>
 </sst>
 </file>
@@ -2603,23 +2603,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH65"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S66" sqref="S66"/>
+      <pane ySplit="8" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI58" sqref="AI58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
       <c r="AG4" s="143"/>
       <c r="AH4" s="143"/>
     </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="143"/>
       <c r="B5" s="143"/>
       <c r="C5" s="143"/>
@@ -4062,12 +4062,16 @@
       </c>
       <c r="AH28" s="25"/>
     </row>
-    <row r="29" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>20</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="24">
+        <v>43986</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="25"/>
@@ -4089,16 +4093,20 @@
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
       <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
+      <c r="Y29" s="62">
+        <v>2</v>
+      </c>
       <c r="Z29" s="25"/>
       <c r="AA29" s="25"/>
       <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
+      <c r="AC29" s="46">
+        <v>1</v>
+      </c>
       <c r="AD29" s="25"/>
       <c r="AE29" s="25"/>
       <c r="AF29" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG29" s="25">
         <f t="shared" si="1"/>
@@ -4106,7 +4114,7 @@
       </c>
       <c r="AH29" s="25"/>
     </row>
-    <row r="30" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>21</v>
       </c>
@@ -4150,7 +4158,7 @@
       </c>
       <c r="AH30" s="25"/>
     </row>
-    <row r="31" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>22</v>
       </c>
@@ -4194,7 +4202,7 @@
       </c>
       <c r="AH31" s="25"/>
     </row>
-    <row r="32" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>23</v>
       </c>
@@ -4238,7 +4246,7 @@
       </c>
       <c r="AH32" s="25"/>
     </row>
-    <row r="33" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>24</v>
       </c>
@@ -4282,7 +4290,7 @@
       </c>
       <c r="AH33" s="25"/>
     </row>
-    <row r="34" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>25</v>
       </c>
@@ -4326,7 +4334,7 @@
       </c>
       <c r="AH34" s="25"/>
     </row>
-    <row r="35" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>26</v>
       </c>
@@ -4370,7 +4378,7 @@
       </c>
       <c r="AH35" s="25"/>
     </row>
-    <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>27</v>
       </c>
@@ -4414,7 +4422,7 @@
       </c>
       <c r="AH36" s="25"/>
     </row>
-    <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>28</v>
       </c>
@@ -4458,7 +4466,7 @@
       </c>
       <c r="AH37" s="25"/>
     </row>
-    <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>29</v>
       </c>
@@ -4502,7 +4510,7 @@
       </c>
       <c r="AH38" s="25"/>
     </row>
-    <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>30</v>
       </c>
@@ -4546,7 +4554,7 @@
       </c>
       <c r="AH39" s="25"/>
     </row>
-    <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>31</v>
       </c>
@@ -4590,7 +4598,7 @@
       </c>
       <c r="AH40" s="25"/>
     </row>
-    <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>32</v>
       </c>
@@ -4634,7 +4642,7 @@
       </c>
       <c r="AH41" s="27"/>
     </row>
-    <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>33</v>
       </c>
@@ -4678,7 +4686,7 @@
       </c>
       <c r="AH42" s="27"/>
     </row>
-    <row r="43" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>34</v>
       </c>
@@ -4722,7 +4730,7 @@
       </c>
       <c r="AH43" s="27"/>
     </row>
-    <row r="44" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>35</v>
       </c>
@@ -4766,7 +4774,7 @@
       </c>
       <c r="AH44" s="22"/>
     </row>
-    <row r="45" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>36</v>
       </c>
@@ -4810,7 +4818,7 @@
       </c>
       <c r="AH45" s="25"/>
     </row>
-    <row r="46" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>37</v>
       </c>
@@ -4854,7 +4862,7 @@
       </c>
       <c r="AH46" s="25"/>
     </row>
-    <row r="47" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>38</v>
       </c>
@@ -4898,7 +4906,7 @@
       </c>
       <c r="AH47" s="25"/>
     </row>
-    <row r="48" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>39</v>
       </c>
@@ -4942,7 +4950,7 @@
       </c>
       <c r="AH48" s="25"/>
     </row>
-    <row r="49" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>40</v>
       </c>
@@ -4986,7 +4994,7 @@
       </c>
       <c r="AH49" s="25"/>
     </row>
-    <row r="50" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>41</v>
       </c>
@@ -5030,7 +5038,7 @@
       </c>
       <c r="AH50" s="25"/>
     </row>
-    <row r="51" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>42</v>
       </c>
@@ -5074,7 +5082,7 @@
       </c>
       <c r="AH51" s="92"/>
     </row>
-    <row r="52" spans="1:34" s="90" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="86"/>
       <c r="B52" s="87"/>
       <c r="C52" s="88"/>
@@ -5110,11 +5118,9 @@
       <c r="AG52" s="91"/>
       <c r="AH52" s="89"/>
     </row>
-    <row r="53" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="28"/>
-      <c r="B53" s="133">
-        <v>43910</v>
-      </c>
+      <c r="B53" s="133"/>
       <c r="C53" s="134"/>
       <c r="D53" s="135">
         <f>SUM(D9:D51)-SUM(E9:E51)</f>
@@ -5168,7 +5174,7 @@
       <c r="W53" s="121"/>
       <c r="X53" s="124">
         <f>SUM(X9:X51)-SUM(Y9:Y51)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y53" s="124"/>
       <c r="Z53" s="121">
@@ -5178,7 +5184,7 @@
       <c r="AA53" s="121"/>
       <c r="AB53" s="125">
         <f>SUM(AB9:AB51)-SUM(AC9:AC51)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC53" s="125"/>
       <c r="AD53" s="121">
@@ -5189,7 +5195,7 @@
       <c r="AF53" s="31"/>
       <c r="AG53" s="20">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AH53" s="32"/>
     </row>
@@ -5229,7 +5235,7 @@
       <c r="AE54" s="128"/>
       <c r="AF54" s="33">
         <f>SUM(AF9:AF51)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AG54" s="33">
         <f>SUM(AG9:AG51)</f>
@@ -5273,15 +5279,10 @@
       <c r="AE55" s="128"/>
       <c r="AF55" s="119">
         <f>AG54-AF54</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG55" s="120"/>
       <c r="AH55" s="34"/>
-    </row>
-    <row r="65" spans="19:19" x14ac:dyDescent="0.25">
-      <c r="S65" s="6" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -5347,16 +5348,16 @@
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5515,7 +5516,7 @@
       <c r="AG4" s="143"/>
       <c r="AH4" s="143"/>
     </row>
-    <row r="5" spans="1:34" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="143"/>
       <c r="B5" s="143"/>
       <c r="C5" s="143"/>
@@ -7119,7 +7120,7 @@
       </c>
       <c r="AH34" s="25"/>
     </row>
-    <row r="35" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>27</v>
       </c>
@@ -7163,7 +7164,7 @@
       </c>
       <c r="AH35" s="25"/>
     </row>
-    <row r="36" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -7207,7 +7208,7 @@
       </c>
       <c r="AH36" s="25"/>
     </row>
-    <row r="37" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>29</v>
       </c>
@@ -7251,7 +7252,7 @@
       </c>
       <c r="AH37" s="25"/>
     </row>
-    <row r="38" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -7295,7 +7296,7 @@
       </c>
       <c r="AH38" s="25"/>
     </row>
-    <row r="39" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>31</v>
       </c>
@@ -7339,7 +7340,7 @@
       </c>
       <c r="AH39" s="25"/>
     </row>
-    <row r="40" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>32</v>
       </c>
@@ -7383,7 +7384,7 @@
       </c>
       <c r="AH40" s="27"/>
     </row>
-    <row r="41" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>33</v>
       </c>
@@ -7427,7 +7428,7 @@
       </c>
       <c r="AH41" s="27"/>
     </row>
-    <row r="42" spans="1:34" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>34</v>
       </c>
@@ -8161,16 +8162,16 @@
       <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -10363,16 +10364,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="31" width="3.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.6640625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="3.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="6" customWidth="1"/>
+    <col min="4" max="31" width="3.28515625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
